--- a/galleryapp/gallery-web/gallery-web-config.xlsx
+++ b/galleryapp/gallery-web/gallery-web-config.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>PROJNAME</t>
     <phoneticPr fontId="1"/>
@@ -134,18 +134,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cherry.example.web.Config</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>exampleapp/example-web</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>example-web.app.paginator</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>totalCount</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -162,14 +150,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>example-web.app</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>example-web.app</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>defaultPageSize</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -183,10 +163,6 @@
   </si>
   <si>
     <t>long</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>example-web.validation.ex40</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -382,14 +358,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>example-web</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>example-web.validation.ex40</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>validationEx40list1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -404,6 +372,24 @@
   <si>
     <t>validationEx40map2</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gallery-web.app.paginator</t>
+  </si>
+  <si>
+    <t>gallery-web.app</t>
+  </si>
+  <si>
+    <t>gallery-web.validation.ex40</t>
+  </si>
+  <si>
+    <t>cherry.gallery.web.Config</t>
+  </si>
+  <si>
+    <t>gallery-web</t>
+  </si>
+  <si>
+    <t>galleryapp/gallery-web</t>
   </si>
 </sst>
 </file>
@@ -940,7 +926,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" outlineLevel="1">
@@ -962,7 +948,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" outlineLevel="1">
@@ -973,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8" outlineLevel="1"/>
@@ -1035,26 +1021,26 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5">
         <v>9</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H8" s="5" t="str">
         <f>IF(AND(F8&lt;&gt;"",G8&lt;&gt;""),F8&amp;"."&amp;G8,"")</f>
-        <v>example-web.app.paginator.totalCount</v>
+        <v>gallery-web.app.paginator.totalCount</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1063,26 +1049,26 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D9" s="5">
         <v>4</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" ref="H9:H13" si="1">IF(AND(F9&lt;&gt;"",G9&lt;&gt;""),F9&amp;"."&amp;G9,"")</f>
-        <v>example-web.app.paginator.lowerSideHint</v>
+        <v>gallery-web.app.paginator.lowerSideHint</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1091,26 +1077,26 @@
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D10" s="5">
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>example-web.app.defaultPageSize</v>
+        <v>gallery-web.app.defaultPageSize</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1119,26 +1105,26 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D11" s="5">
         <v>20</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>example-web.app.historySize</v>
+        <v>gallery-web.app.historySize</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1147,26 +1133,26 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>example-web.validation.ex40.validationEx40list1</v>
+        <v>gallery-web.validation.ex40.validationEx40list1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1175,26 +1161,26 @@
         <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>example-web.validation.ex40.validationEx40list2</v>
+        <v>gallery-web.validation.ex40.validationEx40list2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1203,26 +1189,26 @@
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H14" s="5" t="str">
         <f t="shared" ref="H14:H15" si="2">IF(AND(F14&lt;&gt;"",G14&lt;&gt;""),F14&amp;"."&amp;G14,"")</f>
-        <v>example-web.validation.ex40.validationEx40map1</v>
+        <v>gallery-web.validation.ex40.validationEx40map1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1231,26 +1217,26 @@
         <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>example-web.validation.ex40.validationEx40map2</v>
+        <v>gallery-web.validation.ex40.validationEx40map2</v>
       </c>
     </row>
   </sheetData>
